--- a/ExcelFiles/Test.xlsx
+++ b/ExcelFiles/Test.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amede\Documents\Aero++\build\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amede\Documents\Aero++\API\AERO++_API\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D920C-18A9-43C9-B056-B811FB06D24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D9A3BA-75B5-4EC6-B9E9-765CFAC30402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FUSELAGE" sheetId="2" r:id="rId1"/>
-    <sheet name="DEPENDENCIES" sheetId="3" r:id="rId2"/>
+    <sheet name="INFO" sheetId="4" r:id="rId1"/>
+    <sheet name="FUSELAGE" sheetId="2" r:id="rId2"/>
+    <sheet name="DEPENDENCIES" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="109">
   <si>
     <t>VAR 1</t>
   </si>
@@ -295,6 +296,93 @@
   </si>
   <si>
     <t>LOGARITHMIC</t>
+  </si>
+  <si>
+    <t>WELCOME IN THE INPUT DATA MANAGER</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>Newton</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>deg</t>
+  </si>
+  <si>
+    <t>Column of independent variables</t>
+  </si>
+  <si>
+    <t>Column of dependent variables</t>
+  </si>
+  <si>
+    <t>Degree for poly regression</t>
+  </si>
+  <si>
+    <t>Unit of measure X/Y</t>
+  </si>
+  <si>
+    <t>Add Trace  (TODO)</t>
+  </si>
+  <si>
+    <t>UNIT OF ALL DATA</t>
+  </si>
+  <si>
+    <t>Default statistics</t>
+  </si>
+  <si>
+    <t>Unit of measure</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>PISTON</t>
+  </si>
+  <si>
+    <t>TURBO_FAN</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>ft^2</t>
+  </si>
+  <si>
+    <t>Watt</t>
+  </si>
+  <si>
+    <t>Pound_force</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -318,7 +406,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,8 +467,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -388,11 +488,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -406,6 +586,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,11 +618,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -432,6 +657,330 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74784FE2-5CFA-41AC-B5FE-E757B223EF52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="8161020" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Summary</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> of the main settings</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. On every sheet, it is possible to change the dependent and independent variables through the respective lists. Please set the variables in a logical order useful for your project.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Replicate the Sheet FUSELAGE if you want to add other components. Check </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UNIT OF ALL DATA </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>to specify the MASS, LENGTH,FORCE,POWER,ANGLE and AREA standard unit of measure for every single sheet. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2087880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F501CDB-8588-4060-B99A-764B0913AD20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2087880" y="1120140"/>
+          <a:ext cx="6073140" cy="2156460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The first column of each VAR, represents the independent variable, in every sheet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The second column of each VAR, represents the dependent variable, in every sheet.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Through</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> this selection is possible to choose the regression model.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100"/>
+            <a:t>Below the typology of the method there's</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t> the degree only for poly regression.Default value set 1.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Enable the plot to display the input variables as well as the solution obtained from the regression</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>equation(TODO)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>. Selected the unit of measure for the independent and dependent variables. Please note that this will change the unit of measure from the standard one to the chosen one, and it will propagate for the related variable along the entire workflow.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,11 +1259,243 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6A99E5-42F5-49B6-B423-3675322E73CD}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AA18"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10:X11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" customWidth="1"/>
+    <col min="14" max="14" width="23.5546875" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" customWidth="1"/>
+    <col min="16" max="16" width="23.44140625" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" customWidth="1"/>
+    <col min="18" max="18" width="23.44140625" customWidth="1"/>
+    <col min="19" max="19" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="V1" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="V2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="17"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="J15" s="17"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="V1:AA1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S3">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$R$3="None"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$R$3="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61A56153-C083-4944-97DE-3BE71C961569}">
+          <x14:formula1>
+            <xm:f>DEPENDENCIES!$O$2:$O$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>V3:AA3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3562F83-C1EF-4E49-97D5-2081C61A7BEF}">
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,51 +1521,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1211,17 +1992,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -1231,24 +2012,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A8EA4731-8420-44A5-A1D6-16BD61D20DEC}">
           <x14:formula1>
             <xm:f>DEPENDENCIES!$I$2:$I$49</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 B2</xm:sqref>
+          <xm:sqref>A2:B2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5C323C9A-FD65-45BF-9240-4441780631F1}">
           <x14:formula1>
             <xm:f>DEPENDENCIES!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>C3 F3 I3 L3 O3 R3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BD7E04EB-0D41-41CF-9EF1-248AD7D4D92E}">
           <x14:formula1>
             <xm:f>DEPENDENCIES!$L$2:$L$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>C4 F4 I4 L4 O4 R4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F014019-2989-4587-BD50-22DC27BC8869}">
+          <x14:formula1>
+            <xm:f>DEPENDENCIES!$O$2:$O$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>C8 C10 F8 F10 I8 I10 L8 L10 O8 O10 R8 R10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1256,12 +2043,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E2E12A-D0C5-4575-A3EC-B7179B6E3782}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1275,9 +2062,12 @@
     <col min="9" max="9" width="40.5546875" customWidth="1"/>
     <col min="11" max="11" width="20.21875" customWidth="1"/>
     <col min="12" max="12" width="8.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1305,8 +2095,17 @@
       <c r="L1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1334,8 +2133,17 @@
       <c r="L2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1363,8 +2171,17 @@
       <c r="L3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +2209,11 @@
       <c r="L4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1421,8 +2241,11 @@
       <c r="L5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +2270,11 @@
       <c r="K6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1473,8 +2299,11 @@
       <c r="K7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>63</v>
@@ -1488,8 +2317,11 @@
       <c r="I8" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -1503,49 +2335,70 @@
       <c r="I9" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="I10" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="E11" s="10"/>
       <c r="I11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="E12" s="10"/>
       <c r="I12" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="I13" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="I14" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="I15" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="10"/>
       <c r="I16" s="4" t="s">
         <v>63</v>
